--- a/fileStore/work_model_tables.xlsx
+++ b/fileStore/work_model_tables.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="21840" windowHeight="13710" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="21840" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="非常态工作" sheetId="1" r:id="rId1"/>
     <sheet name="短讯通记录" sheetId="2" r:id="rId2"/>
     <sheet name="投顾策略记录" sheetId="3" r:id="rId3"/>
+    <sheet name="值班信息" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -161,6 +162,26 @@
     <rPh sb="36" eb="37">
       <t>shuo'ming</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +618,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="18"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -727,7 +748,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -808,7 +829,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1053,4 +1074,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fileStore/work_model_tables.xlsx
+++ b/fileStore/work_model_tables.xlsx
@@ -7,57 +7,18 @@
     <workbookView xWindow="0" yWindow="525" windowWidth="21840" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="非常态工作" sheetId="1" r:id="rId1"/>
-    <sheet name="短讯通记录" sheetId="2" r:id="rId2"/>
-    <sheet name="投顾策略记录" sheetId="3" r:id="rId3"/>
-    <sheet name="值班信息" sheetId="4" r:id="rId4"/>
+    <sheet name="短讯通记录" sheetId="2" r:id="rId1"/>
+    <sheet name="投顾策略记录" sheetId="3" r:id="rId2"/>
+    <sheet name="值班信息" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>主题/标题</t>
-  </si>
-  <si>
-    <t>主办方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请部门或受用单位</t>
-  </si>
-  <si>
-    <t>申请者或受用人</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>瑞币情况</t>
-  </si>
-  <si>
-    <t>收入补贴</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型(报告演讲,内外培训,材料撰写,协同开发,课件,客户服务,调研组织,参与外部活动,其它)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信息内容</t>
@@ -197,9 +158,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -265,50 +223,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -603,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,208 +531,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="18"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="10.875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>15</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -820,7 +612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -831,45 +623,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
-        <v>22</v>
+      <c r="A1" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -881,193 +673,193 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="23"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="23"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="23"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1">
-      <c r="A11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,7 +868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1087,29 +879,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>30</v>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
-        <v>34</v>
+      <c r="A9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
